--- a/public/file_nilai/nilai_kelas5_form.xlsx
+++ b/public/file_nilai/nilai_kelas5_form.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\laragon\www\pbpm\public\file_nilai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E00DA18F-EDFE-44B4-9BDB-5B472592AF02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F6041FD-9F48-40C8-A251-88822B01F30A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13587" yWindow="0" windowWidth="13887" windowHeight="14799" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-114" yWindow="-114" windowWidth="27602" windowHeight="14927" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029" iterate="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="114">
   <si>
     <t>kelas</t>
   </si>
@@ -372,6 +372,9 @@
   </si>
   <si>
     <t>Selpianus Nabyal</t>
+  </si>
+  <si>
+    <t>Pemetaan Akhir</t>
   </si>
 </sst>
 </file>
@@ -1076,8 +1079,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH65"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRuler="0" topLeftCell="F21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:K50"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -1093,7 +1096,7 @@
     <col min="9" max="9" width="5.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="24.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="9.7109375" style="1" customWidth="1"/>
     <col min="13" max="13" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="14" max="24" width="9" customWidth="1"/>
     <col min="25" max="28" width="9.140625" hidden="1" customWidth="1"/>
@@ -3240,13 +3243,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="O24" sqref="O24"/>
+    <sheetView showGridLines="0" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6" customWidth="1"/>
+    <col min="4" max="4" width="5" customWidth="1"/>
+    <col min="5" max="5" width="5.7109375" customWidth="1"/>
     <col min="6" max="6" width="16.42578125" customWidth="1"/>
     <col min="7" max="7" width="9.140625" customWidth="1"/>
     <col min="8" max="8" width="2.85546875" customWidth="1"/>
@@ -3603,7 +3609,7 @@
         <v>630</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="G13">
         <v>7</v>

--- a/public/file_nilai/nilai_kelas5_form.xlsx
+++ b/public/file_nilai/nilai_kelas5_form.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\laragon\www\pbpm\public\file_nilai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F6041FD-9F48-40C8-A251-88822B01F30A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD616CD6-E0CC-47B6-A8F6-22E91F4F2773}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-114" yWindow="-114" windowWidth="27602" windowHeight="14927" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1077,10 +1077,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH65"/>
+  <dimension ref="A1:AH50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A47" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="M51" sqref="M51:M65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -3151,81 +3151,6 @@
         <v>67</v>
       </c>
       <c r="M50">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="M51">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="M52">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="M53">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="M54">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="M55">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="M56">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="M57">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="M58">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="M59">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="M60">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="M61">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="M62">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="M63">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="M64">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="65" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M65">
         <v>4</v>
       </c>
     </row>
